--- a/LP Inventory/sS policy/geometric_demand/Policy.xlsx
+++ b/LP Inventory/sS policy/geometric_demand/Policy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -97,10 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M13"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B1" sqref="B1:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,19 +429,19 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -893,6 +896,386 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/LP Inventory/sS policy/geometric_demand/Policy.xlsx
+++ b/LP Inventory/sS policy/geometric_demand/Policy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Decision Epoch</t>
   </si>
@@ -32,6 +32,12 @@
       </rPr>
       <t>↓</t>
     </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -109,6 +115,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M23"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,19 +439,19 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -1279,9 +1289,138 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>6</v>
+      </c>
+      <c r="J26" s="5">
+        <v>7</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8</v>
+      </c>
+      <c r="L26" s="5">
+        <v>9</v>
+      </c>
+      <c r="M26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
